--- a/SeleniumBasics/src/test/resources/TestData.xlsx
+++ b/SeleniumBasics/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\repository\SeleniumBasics\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFADFD8D-F646-47AE-AAEE-B58495529207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C7D951-DD69-41F1-900D-03F41F4DB2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t>blessy108@gmail.com</t>
   </si>
   <si>
-    <t>Demo Web shop</t>
+    <t>Demo Web Shop</t>
   </si>
 </sst>
 </file>

--- a/SeleniumBasics/src/test/resources/TestData.xlsx
+++ b/SeleniumBasics/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\repository\SeleniumBasics\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C7D951-DD69-41F1-900D-03F41F4DB2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAF292F-1CB1-46C9-BE34-20F2A2BCCD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t>blessy108@gmail.com</t>
   </si>
   <si>
-    <t>Demo Web Shop</t>
+    <t>Demo Web shop</t>
   </si>
 </sst>
 </file>

--- a/SeleniumBasics/src/test/resources/TestData.xlsx
+++ b/SeleniumBasics/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\repository\SeleniumBasics\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAF292F-1CB1-46C9-BE34-20F2A2BCCD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824F90ED-FD65-4FFC-9862-D937E65E511E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t>blessy108@gmail.com</t>
   </si>
   <si>
-    <t>Demo Web shop</t>
+    <t>Demo Web Shop</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5AAD0D-79CB-41AA-9F01-029D5E0422B3}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
